--- a/software/data/processed_data/staging_xls/Scene Capture - SUB5 - S3 - T2 - CC - OK-Avatar-ProcessedPpg-2025-07-08-14-35-11.xlsx
+++ b/software/data/processed_data/staging_xls/Scene Capture - SUB5 - S3 - T2 - CC - OK-Avatar-ProcessedPpg-2025-07-08-14-35-11.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-09-07-29-05</t>
+          <t>2025-07-10-07-03-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
